--- a/validation/country_classification_validation.xlsx
+++ b/validation/country_classification_validation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="222">
   <si>
     <t>ECLI</t>
   </si>
@@ -27,6 +27,9 @@
     <t>Countries</t>
   </si>
   <si>
+    <t>Method</t>
+  </si>
+  <si>
     <t>ECLI:NL:RBROT:2021:12341</t>
   </si>
   <si>
@@ -36,6 +39,9 @@
     <t>Ecuador</t>
   </si>
   <si>
+    <t>Shipment</t>
+  </si>
+  <si>
     <t>ECLI:NL:RBOVE:2021:1902</t>
   </si>
   <si>
@@ -51,6 +57,12 @@
     <t>Mdma</t>
   </si>
   <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Car</t>
+  </si>
+  <si>
     <t>ECLI:NL:RBAMS:2019:7745</t>
   </si>
   <si>
@@ -63,9 +75,6 @@
     <t>Amfetamine, hennep, hashish</t>
   </si>
   <si>
-    <t>Germany</t>
-  </si>
-  <si>
     <t>ECLI:NL:RBHAA:2009:BK8043</t>
   </si>
   <si>
@@ -75,6 +84,9 @@
     <t>Germany, Belgium, Spain, Italy, United Kingdom, France, Portugal, Switzerland</t>
   </si>
   <si>
+    <t>car</t>
+  </si>
+  <si>
     <t>ECLI:NL:RBHAA:2006:AZ3151</t>
   </si>
   <si>
@@ -88,6 +100,9 @@
   </si>
   <si>
     <t>Suriname</t>
+  </si>
+  <si>
+    <t>airplane</t>
   </si>
   <si>
     <t>ECLI:NL:RBMAA:2009:2868</t>
@@ -720,11 +735,11 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
@@ -947,10 +962,12 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="37.14"/>
-    <col customWidth="1" min="2" max="2" width="29.57"/>
-    <col customWidth="1" min="3" max="3" width="25.14"/>
+    <col customWidth="1" min="2" max="3" width="13.29"/>
     <col customWidth="1" min="4" max="4" width="15.14"/>
-    <col customWidth="1" min="5" max="26" width="8.71"/>
+    <col customWidth="1" min="5" max="5" width="14.29"/>
+    <col customWidth="1" min="6" max="11" width="8.71"/>
+    <col customWidth="1" min="12" max="12" width="12.29"/>
+    <col customWidth="1" min="13" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -963,896 +980,932 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
+      <c r="A2" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="C46" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="A76" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="A77" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="A78" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="A79" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="2" t="s">
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="A80" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>28</v>
+        <v>181</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
@@ -1861,13 +1914,13 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>163</v>
+        <v>183</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
@@ -1876,13 +1929,13 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>181</v>
+        <v>185</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -1891,13 +1944,13 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>181</v>
+        <v>187</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
@@ -1906,13 +1959,13 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -1921,13 +1974,13 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -1936,13 +1989,13 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>189</v>
+        <v>193</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -1951,13 +2004,13 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>181</v>
+        <v>195</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -1966,13 +2019,13 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>193</v>
+        <v>196</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -1981,13 +2034,13 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>195</v>
+        <v>199</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -1996,13 +2049,13 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -2011,13 +2064,13 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>199</v>
+        <v>203</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -2026,90 +2079,90 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>204</v>
+        <v>207</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>206</v>
+        <v>210</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>209</v>
+        <v>212</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>211</v>
+        <v>215</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>201</v>
+        <v>217</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>214</v>
+        <v>218</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>216</v>
+        <v>220</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
@@ -2146,7 +2199,7 @@
       <c r="A112" s="4"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="2"/>
+      <c r="A113" s="3"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="4"/>
